--- a/src/Demo.xlsx
+++ b/src/Demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daj/Code/Alfred/i-sheet-you-not/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regn-my.sharepoint.com/personal/giovanni_coppola_regeneron_com/Documents/MyScripts/myGitHubRepos/i-sheet-you-not/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_83A26A6A946061D44F5B5ECD32561AAAF72883F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3AB9F29-41FD-8442-BBFB-39F041CDE8EB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="13660" windowHeight="14820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25880" windowHeight="21880" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,20 @@
     <sheet name="earthquakes" sheetId="6" r:id="rId5"/>
     <sheet name="Liverpool Transfers" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6367,7 +6378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
@@ -6645,7 +6656,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="Sheet1-style" pivot="0" count="3">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -6660,6 +6671,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6927,7 +6941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8166,7 +8180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8227,10 +8241,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8238,7 +8252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22151,7 +22165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24967,11 +24981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" activeCellId="1" sqref="E4 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25362,10 +25376,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
